--- a/Curr/TeamStatsScore_Curr.xlsx
+++ b/Curr/TeamStatsScore_Curr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My codes/NBA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My codes/NBA_pred/Curr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB7EED88-D445-FD49-92A7-AE4AC02E61AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4439204-A4D5-5247-97DF-F178E18FEFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16280" xr2:uid="{F12B9F8A-4FD6-1242-9023-1358E92C1669}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,13 +641,13 @@
         <v>57.7</v>
       </c>
       <c r="C2" s="1">
-        <v>64.5</v>
+        <v>56.1</v>
       </c>
       <c r="D2" s="1">
         <v>58.2</v>
       </c>
       <c r="E2" s="1">
-        <v>63</v>
+        <v>51.4</v>
       </c>
       <c r="F2" s="1">
         <v>61.8</v>
@@ -659,7 +659,7 @@
         <v>58.7</v>
       </c>
       <c r="I2" s="1">
-        <v>59.4</v>
+        <v>59.5</v>
       </c>
       <c r="J2" s="1">
         <v>53.9</v>
@@ -689,7 +689,7 @@
         <v>62.9</v>
       </c>
       <c r="S2" s="1">
-        <v>59.2</v>
+        <v>67</v>
       </c>
       <c r="T2" s="1">
         <v>60.5</v>
@@ -736,13 +736,13 @@
         <v>42.3</v>
       </c>
       <c r="C3" s="1">
-        <v>35.5</v>
+        <v>43.9</v>
       </c>
       <c r="D3" s="1">
         <v>41.8</v>
       </c>
       <c r="E3" s="1">
-        <v>37</v>
+        <v>48.6</v>
       </c>
       <c r="F3" s="1">
         <v>38.200000000000003</v>
@@ -754,7 +754,7 @@
         <v>41.3</v>
       </c>
       <c r="I3" s="1">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J3" s="1">
         <v>46.1</v>
@@ -784,7 +784,7 @@
         <v>37.1</v>
       </c>
       <c r="S3" s="1">
-        <v>40.799999999999997</v>
+        <v>33</v>
       </c>
       <c r="T3" s="1">
         <v>39.5</v>
@@ -831,13 +831,13 @@
         <v>50.2</v>
       </c>
       <c r="C4" s="1">
-        <v>55.6</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D4" s="1">
         <v>47.5</v>
       </c>
       <c r="E4" s="1">
-        <v>50.7</v>
+        <v>31.7</v>
       </c>
       <c r="F4" s="1">
         <v>50.9</v>
@@ -849,7 +849,7 @@
         <v>46.9</v>
       </c>
       <c r="I4" s="1">
-        <v>48.6</v>
+        <v>54.7</v>
       </c>
       <c r="J4" s="1">
         <v>45.2</v>
@@ -879,7 +879,7 @@
         <v>51.6</v>
       </c>
       <c r="S4" s="1">
-        <v>49.3</v>
+        <v>55.8</v>
       </c>
       <c r="T4" s="1">
         <v>50.9</v>
@@ -926,13 +926,13 @@
         <v>8.1</v>
       </c>
       <c r="C5" s="1">
-        <v>9</v>
+        <v>1.9</v>
       </c>
       <c r="D5" s="1">
         <v>5.6</v>
       </c>
       <c r="E5" s="1">
-        <v>8.9</v>
+        <v>7.9</v>
       </c>
       <c r="F5" s="1">
         <v>8.4</v>
@@ -944,7 +944,7 @@
         <v>7.4</v>
       </c>
       <c r="I5" s="1">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="J5" s="1">
         <v>6.9</v>
@@ -974,7 +974,7 @@
         <v>12.6</v>
       </c>
       <c r="S5" s="1">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="T5" s="1">
         <v>8.4</v>
@@ -1021,13 +1021,13 @@
         <v>34.700000000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>29.3</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>36.5</v>
       </c>
       <c r="E6" s="1">
-        <v>31.4</v>
+        <v>47.5</v>
       </c>
       <c r="F6" s="1">
         <v>32.9</v>
@@ -1039,7 +1039,7 @@
         <v>35.700000000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>35.6</v>
+        <v>22.6</v>
       </c>
       <c r="J6" s="1">
         <v>39.5</v>
@@ -1069,7 +1069,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>36.1</v>
+        <v>31.7</v>
       </c>
       <c r="T6" s="1">
         <v>34.799999999999997</v>
@@ -1116,13 +1116,13 @@
         <v>15.7</v>
       </c>
       <c r="C7" s="1">
-        <v>16.8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D7" s="1">
         <v>17.2</v>
       </c>
       <c r="E7" s="1">
-        <v>12.1</v>
+        <v>7.9</v>
       </c>
       <c r="F7" s="1">
         <v>13.7</v>
@@ -1134,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="J7" s="1">
         <v>10.5</v>
@@ -1164,7 +1164,7 @@
         <v>12.1</v>
       </c>
       <c r="S7" s="1">
-        <v>14.8</v>
+        <v>6.7</v>
       </c>
       <c r="T7" s="1">
         <v>11.9</v>
@@ -1211,13 +1211,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>15.2</v>
+        <v>27.2</v>
       </c>
       <c r="D8" s="1">
         <v>16</v>
       </c>
       <c r="E8" s="1">
-        <v>17.899999999999999</v>
+        <v>20.8</v>
       </c>
       <c r="F8" s="1">
         <v>16.2</v>
@@ -1229,7 +1229,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>15.8</v>
+        <v>22.6</v>
       </c>
       <c r="J8" s="1">
         <v>15.3</v>
@@ -1259,7 +1259,7 @@
         <v>15.3</v>
       </c>
       <c r="S8" s="1">
-        <v>14.6</v>
+        <v>12.5</v>
       </c>
       <c r="T8" s="1">
         <v>14.4</v>
@@ -1306,13 +1306,13 @@
         <v>14.2</v>
       </c>
       <c r="C9" s="1">
-        <v>16.600000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="D9" s="1">
         <v>17.399999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>15.1</v>
+        <v>28.7</v>
       </c>
       <c r="F9" s="1">
         <v>15.8</v>
@@ -1324,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="1">
-        <v>12.6</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J9" s="1">
         <v>12.9</v>
@@ -1354,7 +1354,7 @@
         <v>12.5</v>
       </c>
       <c r="S9" s="1">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="T9" s="1">
         <v>15.8</v>
@@ -1401,13 +1401,13 @@
         <v>42.1</v>
       </c>
       <c r="C10" s="1">
-        <v>46.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D10" s="1">
         <v>41.9</v>
       </c>
       <c r="E10" s="1">
-        <v>41.8</v>
+        <v>23.8</v>
       </c>
       <c r="F10" s="1">
         <v>42.5</v>
@@ -1419,7 +1419,7 @@
         <v>39.5</v>
       </c>
       <c r="I10" s="1">
-        <v>42.9</v>
+        <v>52.8</v>
       </c>
       <c r="J10" s="1">
         <v>38.299999999999997</v>
@@ -1449,7 +1449,7 @@
         <v>39</v>
       </c>
       <c r="S10" s="1">
-        <v>42.5</v>
+        <v>46.2</v>
       </c>
       <c r="T10" s="1">
         <v>42.5</v>
@@ -1496,13 +1496,13 @@
         <v>49.8</v>
       </c>
       <c r="C11" s="1">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="D11" s="1">
         <v>53.1</v>
       </c>
       <c r="E11" s="1">
-        <v>46.6</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
         <v>49</v>
@@ -1514,7 +1514,7 @@
         <v>56</v>
       </c>
       <c r="I11" s="1">
-        <v>44.6</v>
+        <v>41.4</v>
       </c>
       <c r="J11" s="1">
         <v>47.7</v>
@@ -1544,7 +1544,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>51.7</v>
+        <v>41.4</v>
       </c>
       <c r="T11" s="1">
         <v>47</v>
@@ -1591,13 +1591,13 @@
         <v>50.2</v>
       </c>
       <c r="C12" s="1">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="D12" s="1">
         <v>46.9</v>
       </c>
       <c r="E12" s="1">
-        <v>53.4</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>51</v>
@@ -1609,7 +1609,7 @@
         <v>44</v>
       </c>
       <c r="I12" s="1">
-        <v>55.4</v>
+        <v>58.6</v>
       </c>
       <c r="J12" s="1">
         <v>52.3</v>
@@ -1639,7 +1639,7 @@
         <v>59.8</v>
       </c>
       <c r="S12" s="1">
-        <v>48.3</v>
+        <v>58.6</v>
       </c>
       <c r="T12" s="1">
         <v>53</v>
@@ -1686,13 +1686,13 @@
         <v>80.7</v>
       </c>
       <c r="C13" s="1">
-        <v>83.1</v>
+        <v>90.9</v>
       </c>
       <c r="D13" s="1">
         <v>81</v>
       </c>
       <c r="E13" s="1">
-        <v>83.2</v>
+        <v>56.3</v>
       </c>
       <c r="F13" s="1">
         <v>70.3</v>
@@ -1704,7 +1704,7 @@
         <v>84.3</v>
       </c>
       <c r="I13" s="1">
-        <v>77.099999999999994</v>
+        <v>62.5</v>
       </c>
       <c r="J13" s="1">
         <v>78</v>
@@ -1734,7 +1734,7 @@
         <v>66.900000000000006</v>
       </c>
       <c r="S13" s="1">
-        <v>87.1</v>
+        <v>90.9</v>
       </c>
       <c r="T13" s="1">
         <v>82.1</v>
@@ -1781,13 +1781,13 @@
         <v>19.3</v>
       </c>
       <c r="C14" s="1">
-        <v>16.899999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D14" s="1">
         <v>19</v>
       </c>
       <c r="E14" s="1">
-        <v>16.8</v>
+        <v>43.8</v>
       </c>
       <c r="F14" s="1">
         <v>29.7</v>
@@ -1799,7 +1799,7 @@
         <v>15.7</v>
       </c>
       <c r="I14" s="1">
-        <v>22.9</v>
+        <v>37.5</v>
       </c>
       <c r="J14" s="1">
         <v>22</v>
@@ -1829,7 +1829,7 @@
         <v>33.1</v>
       </c>
       <c r="S14" s="1">
-        <v>12.9</v>
+        <v>9.1</v>
       </c>
       <c r="T14" s="1">
         <v>17.899999999999999</v>
@@ -1876,13 +1876,13 @@
         <v>59.5</v>
       </c>
       <c r="C15" s="1">
-        <v>60.3</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="D15" s="1">
         <v>62.6</v>
       </c>
       <c r="E15" s="1">
-        <v>57.3</v>
+        <v>53.1</v>
       </c>
       <c r="F15" s="1">
         <v>55.4</v>
@@ -1894,7 +1894,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="I15" s="1">
-        <v>55.2</v>
+        <v>45.9</v>
       </c>
       <c r="J15" s="1">
         <v>58.8</v>
@@ -1924,7 +1924,7 @@
         <v>48.2</v>
       </c>
       <c r="S15" s="1">
-        <v>63.3</v>
+        <v>55</v>
       </c>
       <c r="T15" s="1">
         <v>58</v>
@@ -1971,13 +1971,13 @@
         <v>40.5</v>
       </c>
       <c r="C16" s="1">
-        <v>39.700000000000003</v>
+        <v>34.4</v>
       </c>
       <c r="D16" s="1">
         <v>37.4</v>
       </c>
       <c r="E16" s="1">
-        <v>42.7</v>
+        <v>46.9</v>
       </c>
       <c r="F16" s="1">
         <v>44.6</v>
@@ -1989,7 +1989,7 @@
         <v>34.4</v>
       </c>
       <c r="I16" s="1">
-        <v>44.8</v>
+        <v>54.1</v>
       </c>
       <c r="J16" s="1">
         <v>41.2</v>
@@ -2019,7 +2019,7 @@
         <v>51.8</v>
       </c>
       <c r="S16" s="1">
-        <v>36.700000000000003</v>
+        <v>45</v>
       </c>
       <c r="T16" s="1">
         <v>42</v>
@@ -2094,101 +2094,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2203,10 +2109,6 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2221,10 +2123,6 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2239,10 +2137,6 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2257,10 +2151,6 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2275,10 +2165,6 @@
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2293,10 +2179,6 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2311,10 +2193,6 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
